--- a/biology/Médecine/Plexus_ptérygoïdien/Plexus_ptérygoïdien.xlsx
+++ b/biology/Médecine/Plexus_ptérygoïdien/Plexus_ptérygoïdien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Plexus_pt%C3%A9rygo%C3%AFdien</t>
+          <t>Plexus_ptérygoïdien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plexus ptérygoïdien est un réseau veineux situé dans la fosse infra-temporale.
 Il est situé entre le muscle temporal, le muscle ptérygoïdien médial et le muscle ptérygoïdien latéral.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Plexus_pt%C3%A9rygo%C3%AFdien</t>
+          <t>Plexus_ptérygoïdien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Affluents</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il reçoit les affluents correspondant aux branches de l'artère maxillaire :
 les veines méningées moyennes ;
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Plexus_pt%C3%A9rygo%C3%AFdien</t>
+          <t>Plexus_ptérygoïdien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,7 +567,9 @@
           <t>Drainage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plexus ptérygoïdien des veines devient la veine maxillaire .Elle rejoint  la veine temporale superficielle pour devenir la veine rétro-mandibulaire. La branche postérieure de la veine rétro-mandibulaire et la veine auriculaire postérieure forment alors la veine jugulaire externe qui se jette dans la veine sous-clavière.
 </t>
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Plexus_pt%C3%A9rygo%C3%AFdien</t>
+          <t>Plexus_ptérygoïdien</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Rapports</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce plexus communique avec la veine faciale antérieure.
 Il communique également avec le sinus caverneux, par des branches passant par le foramen veineux, le foramen ovale et le foramen déchiré.
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Plexus_pt%C3%A9rygo%C3%AFdien</t>
+          <t>Plexus_ptérygoïdien</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +634,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En raison de sa communication avec le sinus caverneux, une infection de la face superficielle peut se propager au sinus caverneux et provoquer une thrombose du sinus caverneux. Cette complication peut se manifester par un œdème des paupières et une paralysie des nerfs crâniens qui traversent le sinus caverneux.
 </t>
